--- a/sds/sds3-dados.xlsx
+++ b/sds/sds3-dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acene\Google Drive\DevSuperior\Operações DevSuperior\Lançamentos\2021-05\Projeto do evento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B27D04-5EDF-4A21-B060-9DB2A5FAF73B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271B25FC-4A19-4291-9F18-16797E21C00A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BaseDeDados" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="16">
   <si>
     <t>Vendedor</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Data</t>
-  </si>
-  <si>
-    <t>Taxa de sucesso</t>
   </si>
   <si>
     <t>Padmé</t>
@@ -148,7 +145,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -166,15 +163,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -184,10 +177,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <b val="0"/>
@@ -299,7 +289,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[dados.xlsx]Vendas!Tabela dinâmica21</c:name>
+    <c:name>[sds3-dados.xlsx]Vendas!Tabela dinâmica21</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -2024,8 +2014,8 @@
     <cacheField name="Taxa de sucesso" numFmtId="2">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.0909090909090912E-2" maxValue="1"/>
     </cacheField>
-    <cacheField name="Diferença" numFmtId="0" formula="'Clientes visitados' -'Negócios Fechados'" databaseField="0"/>
-    <cacheField name="% Sucesso" numFmtId="0" formula="'Negócios Fechados' /'Clientes visitados'" databaseField="0"/>
+    <cacheField name="Diferença" numFmtId="0" formula="'Clientes visitados'-'Negócios Fechados'" databaseField="0"/>
+    <cacheField name="% Sucesso" numFmtId="0" formula="'Negócios Fechados'/'Clientes visitados'" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -3401,7 +3391,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98BB9F01-1738-4D85-8E36-364F0ED3402C}" name="Tabela dinâmica9" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98BB9F01-1738-4D85-8E36-364F0ED3402C}" name="Tabela dinâmica9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="12">
   <location ref="A3:D8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" numFmtId="14" outline="0" showAll="0" defaultSubtotal="0">
@@ -3553,7 +3543,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2358AE7F-B0AC-4A94-AEE7-0A1B30B84405}" name="Tabela dinâmica21" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2358AE7F-B0AC-4A94-AEE7-0A1B30B84405}" name="Tabela dinâmica21" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="14" showAll="0"/>
@@ -3727,20 +3717,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B4A11F0-F1A1-4CC5-8638-1CA4700573E8}" name="TBVendas3" displayName="TBVendas3" ref="A1:F171" headerRowDxfId="7">
-  <autoFilter ref="A1:F171" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F171">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B4A11F0-F1A1-4CC5-8638-1CA4700573E8}" name="TBVendas3" displayName="TBVendas3" ref="A1:E171" headerRowDxfId="6">
+  <autoFilter ref="A1:E171" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E171">
     <sortCondition descending="1" ref="A1:A171"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{E215C743-C9FB-4275-BA6D-0B55E4B0D944}" name="Data" dataDxfId="6"/>
+  <tableColumns count="5">
+    <tableColumn id="2" xr3:uid="{E215C743-C9FB-4275-BA6D-0B55E4B0D944}" name="Data" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{B790EA92-00EA-4938-8F76-56C9AD62D5A1}" name="Vendedor"/>
-    <tableColumn id="7" xr3:uid="{03AE97C0-0D91-4373-B2EF-8FA077C62D95}" name="Clientes visitados" dataDxfId="5" dataCellStyle="Vírgula"/>
-    <tableColumn id="4" xr3:uid="{8B7BFFEA-87A5-44D4-BCF3-B90989D568BE}" name="Negócios Fechados" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3" dataCellStyle="Vírgula"/>
-    <tableColumn id="5" xr3:uid="{5823A218-E72F-4EF7-B169-74E7D036D07F}" name="Valor Vendido" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1" dataCellStyle="Moeda"/>
-    <tableColumn id="8" xr3:uid="{E2F0C1AF-F27C-453A-B45E-AD5F241597CF}" name="Taxa de sucesso" dataDxfId="0">
-      <calculatedColumnFormula>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="7" xr3:uid="{03AE97C0-0D91-4373-B2EF-8FA077C62D95}" name="Clientes visitados" dataDxfId="4" dataCellStyle="Vírgula"/>
+    <tableColumn id="4" xr3:uid="{8B7BFFEA-87A5-44D4-BCF3-B90989D568BE}" name="Negócios Fechados" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Vírgula"/>
+    <tableColumn id="5" xr3:uid="{5823A218-E72F-4EF7-B169-74E7D036D07F}" name="Valor Vendido" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4043,22 +4030,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76F91F2-2FAA-4B3A-B463-42CBA47F1245}">
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="17" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -4071,19 +4059,16 @@
       <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>44287</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>83</v>
@@ -4091,20 +4076,16 @@
       <c r="D2" s="1">
         <v>66</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <v>5501</v>
       </c>
-      <c r="F2" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.79518072289156627</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>44286</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>113</v>
@@ -4112,15 +4093,11 @@
       <c r="D3" s="1">
         <v>78</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>8290</v>
       </c>
-      <c r="F3" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.69026548672566368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>44285</v>
       </c>
@@ -4133,15 +4110,11 @@
       <c r="D4" s="1">
         <v>12</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>6096</v>
       </c>
-      <c r="F4" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>44282</v>
       </c>
@@ -4154,15 +4127,11 @@
       <c r="D5" s="1">
         <v>22</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>3223</v>
       </c>
-      <c r="F5" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.52380952380952384</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>44281</v>
       </c>
@@ -4175,20 +4144,16 @@
       <c r="D6" s="1">
         <v>12</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>15017</v>
       </c>
-      <c r="F6" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.31578947368421051</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>44276</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>88</v>
@@ -4196,15 +4161,11 @@
       <c r="D7" s="1">
         <v>52</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>20899</v>
       </c>
-      <c r="F7" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.59090909090909094</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>44272</v>
       </c>
@@ -4217,15 +4178,11 @@
       <c r="D8" s="1">
         <v>66</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>12383</v>
       </c>
-      <c r="F8" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.69473684210526321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>44272</v>
       </c>
@@ -4238,20 +4195,16 @@
       <c r="D9" s="1">
         <v>78</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>10748</v>
       </c>
-      <c r="F9" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>44270</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>114</v>
@@ -4259,15 +4212,11 @@
       <c r="D10" s="1">
         <v>71</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>22274</v>
       </c>
-      <c r="F10" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.6228070175438597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>44269</v>
       </c>
@@ -4280,15 +4229,11 @@
       <c r="D11" s="1">
         <v>96</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>19284</v>
       </c>
-      <c r="F11" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.75590551181102361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>44264</v>
       </c>
@@ -4301,15 +4246,11 @@
       <c r="D12" s="1">
         <v>13</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>6871</v>
       </c>
-      <c r="F12" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.29545454545454547</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>44260</v>
       </c>
@@ -4322,20 +4263,16 @@
       <c r="D13" s="1">
         <v>25</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>9034</v>
       </c>
-      <c r="F13" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.51020408163265307</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>44259</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
         <v>105</v>
@@ -4343,15 +4280,11 @@
       <c r="D14" s="1">
         <v>84</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>8114</v>
       </c>
-      <c r="F14" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>44258</v>
       </c>
@@ -4364,15 +4297,11 @@
       <c r="D15" s="1">
         <v>65</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>21628</v>
       </c>
-      <c r="F15" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.69148936170212771</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>44255</v>
       </c>
@@ -4385,15 +4314,11 @@
       <c r="D16" s="1">
         <v>46</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>21707</v>
       </c>
-      <c r="F16" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.47422680412371132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>44237</v>
       </c>
@@ -4406,15 +4331,11 @@
       <c r="D17" s="1">
         <v>71</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>12652</v>
       </c>
-      <c r="F17" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.68269230769230771</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>44236</v>
       </c>
@@ -4427,15 +4348,11 @@
       <c r="D18" s="1">
         <v>14</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>19349</v>
       </c>
-      <c r="F18" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.18421052631578946</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>44235</v>
       </c>
@@ -4448,20 +4365,16 @@
       <c r="D19" s="1">
         <v>78</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>21216</v>
       </c>
-      <c r="F19" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.50649350649350644</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>44230</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1">
         <v>133</v>
@@ -4469,15 +4382,11 @@
       <c r="D20" s="1">
         <v>88</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>12561</v>
       </c>
-      <c r="F20" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.66165413533834583</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>44227</v>
       </c>
@@ -4490,15 +4399,11 @@
       <c r="D21" s="1">
         <v>31</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>15963</v>
       </c>
-      <c r="F21" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>44221</v>
       </c>
@@ -4511,15 +4416,11 @@
       <c r="D22" s="1">
         <v>70</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>19349</v>
       </c>
-      <c r="F22" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.51094890510948909</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>44212</v>
       </c>
@@ -4532,15 +4433,11 @@
       <c r="D23" s="1">
         <v>33</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>9103</v>
       </c>
-      <c r="F23" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.62264150943396224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>44206</v>
       </c>
@@ -4553,15 +4450,11 @@
       <c r="D24" s="1">
         <v>93</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>12927</v>
       </c>
-      <c r="F24" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.50543478260869568</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>44204</v>
       </c>
@@ -4574,15 +4467,11 @@
       <c r="D25" s="1">
         <v>12</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>6537</v>
       </c>
-      <c r="F25" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.34285714285714286</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>44197</v>
       </c>
@@ -4595,15 +4484,11 @@
       <c r="D26" s="1">
         <v>55</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>19890</v>
       </c>
-      <c r="F26" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.59139784946236562</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>44193</v>
       </c>
@@ -4616,15 +4501,11 @@
       <c r="D27" s="1">
         <v>92</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>6299</v>
       </c>
-      <c r="F27" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.54761904761904767</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>44191</v>
       </c>
@@ -4637,15 +4518,11 @@
       <c r="D28" s="1">
         <v>13</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>22411</v>
       </c>
-      <c r="F28" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.27083333333333331</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>44189</v>
       </c>
@@ -4658,15 +4535,11 @@
       <c r="D29" s="1">
         <v>67</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>9788</v>
       </c>
-      <c r="F29" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.62616822429906538</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>44185</v>
       </c>
@@ -4679,15 +4552,11 @@
       <c r="D30" s="1">
         <v>62</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>18942</v>
       </c>
-      <c r="F30" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.58490566037735847</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>44183</v>
       </c>
@@ -4700,20 +4569,16 @@
       <c r="D31" s="1">
         <v>26</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>11731</v>
       </c>
-      <c r="F31" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>44183</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="1">
         <v>101</v>
@@ -4721,20 +4586,16 @@
       <c r="D32" s="1">
         <v>68</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>19882</v>
       </c>
-      <c r="F32" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.67326732673267331</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="8">
         <v>44182</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="1">
         <v>185</v>
@@ -4742,15 +4603,11 @@
       <c r="D33" s="1">
         <v>100</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>14618</v>
       </c>
-      <c r="F33" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.54054054054054057</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>44180</v>
       </c>
@@ -4763,15 +4620,11 @@
       <c r="D34" s="1">
         <v>47</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>7951</v>
       </c>
-      <c r="F34" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.57317073170731703</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="8">
         <v>44179</v>
       </c>
@@ -4784,20 +4637,16 @@
       <c r="D35" s="1">
         <v>45</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>4147</v>
       </c>
-      <c r="F35" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.52325581395348841</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="8">
         <v>44174</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36" s="1">
         <v>95</v>
@@ -4805,15 +4654,11 @@
       <c r="D36" s="1">
         <v>88</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <v>12943</v>
       </c>
-      <c r="F36" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.9263157894736842</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>44167</v>
       </c>
@@ -4826,15 +4671,11 @@
       <c r="D37" s="1">
         <v>58</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <v>18747</v>
       </c>
-      <c r="F37" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.77333333333333332</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="8">
         <v>44166</v>
       </c>
@@ -4847,15 +4688,11 @@
       <c r="D38" s="1">
         <v>50</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <v>12624</v>
       </c>
-      <c r="F38" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.52083333333333337</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="8">
         <v>44156</v>
       </c>
@@ -4868,20 +4705,16 @@
       <c r="D39" s="1">
         <v>40</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <v>14770</v>
       </c>
-      <c r="F39" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.50632911392405067</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="8">
         <v>44155</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40" s="1">
         <v>73</v>
@@ -4889,20 +4722,16 @@
       <c r="D40" s="1">
         <v>46</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <v>14124</v>
       </c>
-      <c r="F40" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.63013698630136983</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="8">
         <v>44155</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1">
         <v>92</v>
@@ -4910,15 +4739,11 @@
       <c r="D41" s="1">
         <v>58</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <v>20953</v>
       </c>
-      <c r="F41" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.63043478260869568</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="8">
         <v>44153</v>
       </c>
@@ -4931,15 +4756,11 @@
       <c r="D42" s="1">
         <v>30</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="10">
         <v>9690</v>
       </c>
-      <c r="F42" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.69767441860465118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="8">
         <v>44149</v>
       </c>
@@ -4952,15 +4773,11 @@
       <c r="D43" s="1">
         <v>30</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="10">
         <v>11396</v>
       </c>
-      <c r="F43" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.51724137931034486</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>44149</v>
       </c>
@@ -4973,15 +4790,11 @@
       <c r="D44" s="1">
         <v>14</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="10">
         <v>5119</v>
       </c>
-      <c r="F44" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>44147</v>
       </c>
@@ -4994,15 +4807,11 @@
       <c r="D45" s="1">
         <v>23</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="10">
         <v>8206</v>
       </c>
-      <c r="F45" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.43396226415094341</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>44145</v>
       </c>
@@ -5015,15 +4824,11 @@
       <c r="D46" s="1">
         <v>25</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="10">
         <v>8269</v>
       </c>
-      <c r="F46" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.51020408163265307</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>44144</v>
       </c>
@@ -5036,15 +4841,11 @@
       <c r="D47" s="1">
         <v>29</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="10">
         <v>17984</v>
       </c>
-      <c r="F47" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.54716981132075471</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>44143</v>
       </c>
@@ -5057,15 +4858,11 @@
       <c r="D48" s="1">
         <v>26</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="10">
         <v>3056</v>
       </c>
-      <c r="F48" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.60465116279069764</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>44141</v>
       </c>
@@ -5078,15 +4875,11 @@
       <c r="D49" s="1">
         <v>21</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="10">
         <v>8624</v>
       </c>
-      <c r="F49" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.41176470588235292</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="8">
         <v>44138</v>
       </c>
@@ -5099,15 +4892,11 @@
       <c r="D50" s="1">
         <v>41</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="10">
         <v>10959</v>
       </c>
-      <c r="F50" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.640625</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="8">
         <v>44134</v>
       </c>
@@ -5120,15 +4909,11 @@
       <c r="D51" s="1">
         <v>23</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="10">
         <v>15883</v>
       </c>
-      <c r="F51" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.30666666666666664</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="8">
         <v>44131</v>
       </c>
@@ -5141,15 +4926,11 @@
       <c r="D52" s="1">
         <v>44</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="10">
         <v>14038</v>
       </c>
-      <c r="F52" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.86274509803921573</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="8">
         <v>44130</v>
       </c>
@@ -5162,15 +4943,11 @@
       <c r="D53" s="1">
         <v>81</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="10">
         <v>13535</v>
       </c>
-      <c r="F53" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.57446808510638303</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="8">
         <v>44129</v>
       </c>
@@ -5183,15 +4960,11 @@
       <c r="D54" s="1">
         <v>98</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="10">
         <v>17241</v>
       </c>
-      <c r="F54" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.72592592592592597</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
         <v>44123</v>
       </c>
@@ -5204,15 +4977,11 @@
       <c r="D55" s="1">
         <v>66</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="10">
         <v>16415</v>
       </c>
-      <c r="F55" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.56896551724137934</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="8">
         <v>44118</v>
       </c>
@@ -5225,15 +4994,11 @@
       <c r="D56" s="1">
         <v>44</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="10">
         <v>5329</v>
       </c>
-      <c r="F56" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.73333333333333328</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>44111</v>
       </c>
@@ -5246,15 +5011,11 @@
       <c r="D57" s="1">
         <v>32</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="10">
         <v>16618</v>
       </c>
-      <c r="F57" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.50793650793650791</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <v>44105</v>
       </c>
@@ -5267,15 +5028,11 @@
       <c r="D58" s="1">
         <v>100</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="10">
         <v>5062</v>
       </c>
-      <c r="F58" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.56818181818181823</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="8">
         <v>44103</v>
       </c>
@@ -5288,15 +5045,11 @@
       <c r="D59" s="1">
         <v>45</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="10">
         <v>22235</v>
       </c>
-      <c r="F59" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.38135593220338981</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="8">
         <v>44100</v>
       </c>
@@ -5309,15 +5062,11 @@
       <c r="D60" s="1">
         <v>97</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="10">
         <v>14484</v>
       </c>
-      <c r="F60" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.64666666666666661</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="8">
         <v>44098</v>
       </c>
@@ -5330,20 +5079,16 @@
       <c r="D61" s="1">
         <v>63</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="10">
         <v>18081</v>
       </c>
-      <c r="F61" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.54782608695652169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="8">
         <v>44097</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62" s="1">
         <v>159</v>
@@ -5351,15 +5096,11 @@
       <c r="D62" s="1">
         <v>88</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="10">
         <v>16101</v>
       </c>
-      <c r="F62" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.55345911949685533</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="8">
         <v>44096</v>
       </c>
@@ -5372,15 +5113,11 @@
       <c r="D63" s="1">
         <v>45</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="10">
         <v>11150</v>
       </c>
-      <c r="F63" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.59210526315789469</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="8">
         <v>44083</v>
       </c>
@@ -5393,15 +5130,11 @@
       <c r="D64" s="1">
         <v>63</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="10">
         <v>17982</v>
       </c>
-      <c r="F64" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.96923076923076923</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="8">
         <v>44082</v>
       </c>
@@ -5414,15 +5147,11 @@
       <c r="D65" s="1">
         <v>68</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="10">
         <v>15927</v>
       </c>
-      <c r="F65" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.75555555555555554</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="8">
         <v>44080</v>
       </c>
@@ -5435,15 +5164,11 @@
       <c r="D66" s="1">
         <v>12</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E66" s="10">
         <v>9793</v>
       </c>
-      <c r="F66" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.54545454545454541</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="8">
         <v>44079</v>
       </c>
@@ -5456,15 +5181,11 @@
       <c r="D67" s="1">
         <v>11</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E67" s="10">
         <v>4185</v>
       </c>
-      <c r="F67" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.57894736842105265</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="8">
         <v>44078</v>
       </c>
@@ -5477,15 +5198,11 @@
       <c r="D68" s="1">
         <v>21</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E68" s="10">
         <v>15541</v>
       </c>
-      <c r="F68" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.30882352941176472</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="8">
         <v>44078</v>
       </c>
@@ -5498,15 +5215,11 @@
       <c r="D69" s="1">
         <v>47</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E69" s="10">
         <v>7287</v>
       </c>
-      <c r="F69" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.734375</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="8">
         <v>44078</v>
       </c>
@@ -5519,20 +5232,16 @@
       <c r="D70" s="1">
         <v>92</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E70" s="10">
         <v>17913</v>
       </c>
-      <c r="F70" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.60130718954248363</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="8">
         <v>44076</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C71" s="1">
         <v>93</v>
@@ -5540,15 +5249,11 @@
       <c r="D71" s="1">
         <v>53</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E71" s="10">
         <v>12648</v>
       </c>
-      <c r="F71" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.56989247311827962</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="8">
         <v>44073</v>
       </c>
@@ -5561,15 +5266,11 @@
       <c r="D72" s="1">
         <v>32</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E72" s="10">
         <v>12021</v>
       </c>
-      <c r="F72" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.41025641025641024</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="8">
         <v>44072</v>
       </c>
@@ -5582,15 +5283,11 @@
       <c r="D73" s="1">
         <v>49</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E73" s="10">
         <v>18787</v>
       </c>
-      <c r="F73" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.52127659574468088</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="8">
         <v>44071</v>
       </c>
@@ -5603,15 +5300,11 @@
       <c r="D74" s="1">
         <v>28</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E74" s="10">
         <v>3974</v>
       </c>
-      <c r="F74" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.51851851851851849</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="8">
         <v>44069</v>
       </c>
@@ -5624,15 +5317,11 @@
       <c r="D75" s="1">
         <v>25</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E75" s="10">
         <v>5681</v>
       </c>
-      <c r="F75" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.55555555555555558</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="8">
         <v>44057</v>
       </c>
@@ -5645,20 +5334,16 @@
       <c r="D76" s="1">
         <v>1</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E76" s="10">
         <v>4008</v>
       </c>
-      <c r="F76" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="8">
         <v>44056</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C77" s="1">
         <v>118</v>
@@ -5666,15 +5351,11 @@
       <c r="D77" s="1">
         <v>80</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E77" s="10">
         <v>5218</v>
       </c>
-      <c r="F77" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.67796610169491522</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="8">
         <v>44052</v>
       </c>
@@ -5687,15 +5368,11 @@
       <c r="D78" s="1">
         <v>21</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E78" s="10">
         <v>21220</v>
       </c>
-      <c r="F78" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.40384615384615385</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="8">
         <v>44049</v>
       </c>
@@ -5708,15 +5385,11 @@
       <c r="D79" s="1">
         <v>23</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E79" s="10">
         <v>8831</v>
       </c>
-      <c r="F79" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.18110236220472442</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="8">
         <v>44047</v>
       </c>
@@ -5729,15 +5402,11 @@
       <c r="D80" s="1">
         <v>23</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E80" s="10">
         <v>13900</v>
       </c>
-      <c r="F80" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.29487179487179488</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="8">
         <v>44046</v>
       </c>
@@ -5750,15 +5419,11 @@
       <c r="D81" s="1">
         <v>52</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E81" s="10">
         <v>22086</v>
       </c>
-      <c r="F81" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.50980392156862742</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="8">
         <v>44043</v>
       </c>
@@ -5771,15 +5436,11 @@
       <c r="D82" s="1">
         <v>53</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E82" s="10">
         <v>15731</v>
       </c>
-      <c r="F82" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.98148148148148151</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="8">
         <v>44034</v>
       </c>
@@ -5792,15 +5453,11 @@
       <c r="D83" s="1">
         <v>93</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E83" s="10">
         <v>10816</v>
       </c>
-      <c r="F83" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.53757225433526012</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="8">
         <v>44032</v>
       </c>
@@ -5813,15 +5470,11 @@
       <c r="D84" s="1">
         <v>45</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E84" s="10">
         <v>17633</v>
       </c>
-      <c r="F84" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="8">
         <v>44031</v>
       </c>
@@ -5834,20 +5487,16 @@
       <c r="D85" s="1">
         <v>72</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E85" s="10">
         <v>14528</v>
       </c>
-      <c r="F85" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.52173913043478259</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="8">
         <v>44029</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C86" s="1">
         <v>147</v>
@@ -5855,15 +5504,11 @@
       <c r="D86" s="1">
         <v>96</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E86" s="10">
         <v>21582</v>
       </c>
-      <c r="F86" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.65306122448979587</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="8">
         <v>44025</v>
       </c>
@@ -5876,20 +5521,16 @@
       <c r="D87" s="1">
         <v>12</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E87" s="10">
         <v>9751</v>
       </c>
-      <c r="F87" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="8">
         <v>44020</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88" s="1">
         <v>83</v>
@@ -5897,20 +5538,16 @@
       <c r="D88" s="1">
         <v>59</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E88" s="10">
         <v>8496</v>
       </c>
-      <c r="F88" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.71084337349397586</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="8">
         <v>44019</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C89" s="1">
         <v>58</v>
@@ -5918,15 +5555,11 @@
       <c r="D89" s="1">
         <v>48</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E89" s="10">
         <v>5283</v>
       </c>
-      <c r="F89" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.82758620689655171</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="8">
         <v>44017</v>
       </c>
@@ -5939,15 +5572,11 @@
       <c r="D90" s="1">
         <v>35</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E90" s="10">
         <v>20474</v>
       </c>
-      <c r="F90" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.63636363636363635</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.5">
       <c r="A91" s="8">
         <v>44013</v>
       </c>
@@ -5957,23 +5586,19 @@
       <c r="C91" s="1">
         <v>84</v>
       </c>
-      <c r="D91" s="13">
+      <c r="D91" s="11">
         <v>34</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E91" s="10">
         <v>5787</v>
       </c>
-      <c r="F91" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.40476190476190477</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="8">
         <v>44009</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C92" s="1">
         <v>79</v>
@@ -5981,15 +5606,11 @@
       <c r="D92" s="1">
         <v>68</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E92" s="10">
         <v>11976</v>
       </c>
-      <c r="F92" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.86075949367088611</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="8">
         <v>43998</v>
       </c>
@@ -6002,15 +5623,11 @@
       <c r="D93" s="1">
         <v>67</v>
       </c>
-      <c r="E93" s="11">
+      <c r="E93" s="10">
         <v>18196</v>
       </c>
-      <c r="F93" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.55371900826446285</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="8">
         <v>43996</v>
       </c>
@@ -6023,20 +5640,16 @@
       <c r="D94" s="1">
         <v>14</v>
       </c>
-      <c r="E94" s="11">
+      <c r="E94" s="10">
         <v>4255</v>
       </c>
-      <c r="F94" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.53846153846153844</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="8">
         <v>43996</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C95" s="1">
         <v>55</v>
@@ -6044,20 +5657,16 @@
       <c r="D95" s="1">
         <v>42</v>
       </c>
-      <c r="E95" s="11">
+      <c r="E95" s="10">
         <v>13249</v>
       </c>
-      <c r="F95" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.76363636363636367</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="8">
         <v>43992</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C96" s="1">
         <v>73</v>
@@ -6065,15 +5674,11 @@
       <c r="D96" s="1">
         <v>65</v>
       </c>
-      <c r="E96" s="11">
+      <c r="E96" s="10">
         <v>20751</v>
       </c>
-      <c r="F96" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.8904109589041096</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="8">
         <v>43986</v>
       </c>
@@ -6086,15 +5691,11 @@
       <c r="D97" s="1">
         <v>25</v>
       </c>
-      <c r="E97" s="11">
+      <c r="E97" s="10">
         <v>7318</v>
       </c>
-      <c r="F97" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.53191489361702127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="8">
         <v>43985</v>
       </c>
@@ -6107,15 +5708,11 @@
       <c r="D98" s="1">
         <v>60</v>
       </c>
-      <c r="E98" s="11">
+      <c r="E98" s="10">
         <v>15608</v>
       </c>
-      <c r="F98" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="8">
         <v>43985</v>
       </c>
@@ -6128,15 +5725,11 @@
       <c r="D99" s="1">
         <v>68</v>
       </c>
-      <c r="E99" s="11">
+      <c r="E99" s="10">
         <v>8901</v>
       </c>
-      <c r="F99" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.7010309278350515</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="8">
         <v>43984</v>
       </c>
@@ -6149,15 +5742,11 @@
       <c r="D100" s="1">
         <v>26</v>
       </c>
-      <c r="E100" s="11">
+      <c r="E100" s="10">
         <v>13231</v>
       </c>
-      <c r="F100" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.38235294117647056</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="8">
         <v>43973</v>
       </c>
@@ -6170,15 +5759,11 @@
       <c r="D101" s="1">
         <v>53</v>
       </c>
-      <c r="E101" s="11">
+      <c r="E101" s="10">
         <v>19476</v>
       </c>
-      <c r="F101" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.72602739726027399</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="8">
         <v>43969</v>
       </c>
@@ -6191,15 +5776,11 @@
       <c r="D102" s="1">
         <v>23</v>
       </c>
-      <c r="E102" s="11">
+      <c r="E102" s="10">
         <v>20530</v>
       </c>
-      <c r="F102" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.8214285714285714</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="8">
         <v>43964</v>
       </c>
@@ -6212,15 +5793,11 @@
       <c r="D103" s="1">
         <v>44</v>
       </c>
-      <c r="E103" s="11">
+      <c r="E103" s="10">
         <v>4864</v>
       </c>
-      <c r="F103" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.53012048192771088</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="8">
         <v>43957</v>
       </c>
@@ -6233,15 +5810,11 @@
       <c r="D104" s="1">
         <v>43</v>
       </c>
-      <c r="E104" s="11">
+      <c r="E104" s="10">
         <v>21753</v>
       </c>
-      <c r="F104" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.52439024390243905</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="8">
         <v>43954</v>
       </c>
@@ -6254,15 +5827,11 @@
       <c r="D105" s="1">
         <v>26</v>
       </c>
-      <c r="E105" s="11">
+      <c r="E105" s="10">
         <v>7362</v>
       </c>
-      <c r="F105" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.60465116279069764</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="8">
         <v>43949</v>
       </c>
@@ -6275,20 +5844,16 @@
       <c r="D106" s="1">
         <v>23</v>
       </c>
-      <c r="E106" s="11">
+      <c r="E106" s="10">
         <v>10549</v>
       </c>
-      <c r="F106" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.42592592592592593</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="8">
         <v>43946</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C107" s="1">
         <v>125</v>
@@ -6296,15 +5861,11 @@
       <c r="D107" s="1">
         <v>84</v>
       </c>
-      <c r="E107" s="11">
+      <c r="E107" s="10">
         <v>13333</v>
       </c>
-      <c r="F107" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.67200000000000004</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="8">
         <v>43944</v>
       </c>
@@ -6317,15 +5878,11 @@
       <c r="D108" s="1">
         <v>26</v>
       </c>
-      <c r="E108" s="11">
+      <c r="E108" s="10">
         <v>7431</v>
       </c>
-      <c r="F108" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.59090909090909094</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="8">
         <v>43940</v>
       </c>
@@ -6338,15 +5895,11 @@
       <c r="D109" s="1">
         <v>25</v>
       </c>
-      <c r="E109" s="11">
+      <c r="E109" s="10">
         <v>21099</v>
       </c>
-      <c r="F109" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.54347826086956519</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="8">
         <v>43940</v>
       </c>
@@ -6359,15 +5912,11 @@
       <c r="D110" s="1">
         <v>28</v>
       </c>
-      <c r="E110" s="11">
+      <c r="E110" s="10">
         <v>7217</v>
       </c>
-      <c r="F110" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="8">
         <v>43939</v>
       </c>
@@ -6380,20 +5929,16 @@
       <c r="D111" s="1">
         <v>21</v>
       </c>
-      <c r="E111" s="11">
+      <c r="E111" s="10">
         <v>10107</v>
       </c>
-      <c r="F111" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.40384615384615385</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="8">
         <v>43938</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C112" s="1">
         <v>121</v>
@@ -6401,15 +5946,11 @@
       <c r="D112" s="1">
         <v>90</v>
       </c>
-      <c r="E112" s="11">
+      <c r="E112" s="10">
         <v>18174</v>
       </c>
-      <c r="F112" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.74380165289256195</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="8">
         <v>43933</v>
       </c>
@@ -6422,20 +5963,16 @@
       <c r="D113" s="1">
         <v>14</v>
       </c>
-      <c r="E113" s="11">
+      <c r="E113" s="10">
         <v>8095</v>
       </c>
-      <c r="F113" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.2153846153846154</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="8">
         <v>43933</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C114" s="1">
         <v>107</v>
@@ -6443,15 +5980,11 @@
       <c r="D114" s="1">
         <v>74</v>
       </c>
-      <c r="E114" s="11">
+      <c r="E114" s="10">
         <v>11507</v>
       </c>
-      <c r="F114" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.69158878504672894</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="8">
         <v>43930</v>
       </c>
@@ -6464,15 +5997,11 @@
       <c r="D115" s="1">
         <v>74</v>
       </c>
-      <c r="E115" s="11">
+      <c r="E115" s="10">
         <v>11709</v>
       </c>
-      <c r="F115" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.52857142857142858</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="8">
         <v>43929</v>
       </c>
@@ -6485,15 +6014,11 @@
       <c r="D116" s="1">
         <v>91</v>
       </c>
-      <c r="E116" s="11">
+      <c r="E116" s="10">
         <v>8288</v>
       </c>
-      <c r="F116" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.95789473684210524</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="8">
         <v>43928</v>
       </c>
@@ -6506,15 +6031,11 @@
       <c r="D117" s="1">
         <v>43</v>
       </c>
-      <c r="E117" s="11">
+      <c r="E117" s="10">
         <v>17016</v>
       </c>
-      <c r="F117" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.63235294117647056</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="8">
         <v>43924</v>
       </c>
@@ -6527,15 +6048,11 @@
       <c r="D118" s="1">
         <v>20</v>
       </c>
-      <c r="E118" s="11">
+      <c r="E118" s="10">
         <v>17126</v>
       </c>
-      <c r="F118" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.95238095238095233</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="8">
         <v>43921</v>
       </c>
@@ -6548,15 +6065,11 @@
       <c r="D119" s="1">
         <v>15</v>
       </c>
-      <c r="E119" s="11">
+      <c r="E119" s="10">
         <v>7957</v>
       </c>
-      <c r="F119" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.39473684210526316</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="8">
         <v>43919</v>
       </c>
@@ -6569,15 +6082,11 @@
       <c r="D120" s="1">
         <v>29</v>
       </c>
-      <c r="E120" s="11">
+      <c r="E120" s="10">
         <v>20903</v>
       </c>
-      <c r="F120" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.54716981132075471</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="8">
         <v>43918</v>
       </c>
@@ -6590,15 +6099,11 @@
       <c r="D121" s="1">
         <v>10</v>
       </c>
-      <c r="E121" s="11">
+      <c r="E121" s="10">
         <v>3987</v>
       </c>
-      <c r="F121" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.52631578947368418</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="8">
         <v>43917</v>
       </c>
@@ -6611,15 +6116,11 @@
       <c r="D122" s="1">
         <v>34</v>
       </c>
-      <c r="E122" s="11">
+      <c r="E122" s="10">
         <v>20795</v>
       </c>
-      <c r="F122" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.4358974358974359</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="8">
         <v>43916</v>
       </c>
@@ -6632,15 +6133,11 @@
       <c r="D123" s="1">
         <v>44</v>
       </c>
-      <c r="E123" s="11">
+      <c r="E123" s="10">
         <v>4938</v>
       </c>
-      <c r="F123" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.53012048192771088</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="8">
         <v>43903</v>
       </c>
@@ -6653,15 +6150,11 @@
       <c r="D124" s="1">
         <v>12</v>
       </c>
-      <c r="E124" s="11">
+      <c r="E124" s="10">
         <v>6926</v>
       </c>
-      <c r="F124" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="8">
         <v>43903</v>
       </c>
@@ -6674,15 +6167,11 @@
       <c r="D125" s="1">
         <v>33</v>
       </c>
-      <c r="E125" s="11">
+      <c r="E125" s="10">
         <v>8193</v>
       </c>
-      <c r="F125" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.515625</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="8">
         <v>43895</v>
       </c>
@@ -6695,15 +6184,11 @@
       <c r="D126" s="1">
         <v>39</v>
       </c>
-      <c r="E126" s="11">
+      <c r="E126" s="10">
         <v>10557</v>
       </c>
-      <c r="F126" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="8">
         <v>43892</v>
       </c>
@@ -6716,15 +6201,11 @@
       <c r="D127" s="1">
         <v>84</v>
       </c>
-      <c r="E127" s="11">
+      <c r="E127" s="10">
         <v>21601</v>
       </c>
-      <c r="F127" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.53164556962025311</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="8">
         <v>43890</v>
       </c>
@@ -6737,20 +6218,16 @@
       <c r="D128" s="1">
         <v>6</v>
       </c>
-      <c r="E128" s="11">
+      <c r="E128" s="10">
         <v>7625</v>
       </c>
-      <c r="F128" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="8">
         <v>43888</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C129" s="1">
         <v>82</v>
@@ -6758,15 +6235,11 @@
       <c r="D129" s="1">
         <v>82</v>
       </c>
-      <c r="E129" s="11">
+      <c r="E129" s="10">
         <v>22465</v>
       </c>
-      <c r="F129" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="8">
         <v>43878</v>
       </c>
@@ -6779,15 +6252,11 @@
       <c r="D130" s="1">
         <v>56</v>
       </c>
-      <c r="E130" s="11">
+      <c r="E130" s="10">
         <v>12595</v>
       </c>
-      <c r="F130" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.82352941176470584</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="8">
         <v>43877</v>
       </c>
@@ -6800,15 +6269,11 @@
       <c r="D131" s="1">
         <v>13</v>
       </c>
-      <c r="E131" s="11">
+      <c r="E131" s="10">
         <v>4636</v>
       </c>
-      <c r="F131" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.48148148148148145</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="8">
         <v>43875</v>
       </c>
@@ -6821,15 +6286,11 @@
       <c r="D132" s="1">
         <v>33</v>
       </c>
-      <c r="E132" s="11">
+      <c r="E132" s="10">
         <v>10155</v>
       </c>
-      <c r="F132" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.63461538461538458</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="8">
         <v>43874</v>
       </c>
@@ -6842,20 +6303,16 @@
       <c r="D133" s="1">
         <v>81</v>
       </c>
-      <c r="E133" s="11">
+      <c r="E133" s="10">
         <v>13610</v>
       </c>
-      <c r="F133" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.57042253521126762</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="8">
         <v>43869</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C134" s="1">
         <v>81</v>
@@ -6863,15 +6320,11 @@
       <c r="D134" s="1">
         <v>45</v>
       </c>
-      <c r="E134" s="11">
+      <c r="E134" s="10">
         <v>15306</v>
       </c>
-      <c r="F134" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.55555555555555558</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="8">
         <v>43868</v>
       </c>
@@ -6884,15 +6337,11 @@
       <c r="D135" s="1">
         <v>35</v>
       </c>
-      <c r="E135" s="11">
+      <c r="E135" s="10">
         <v>17460</v>
       </c>
-      <c r="F135" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.546875</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="8">
         <v>43864</v>
       </c>
@@ -6905,15 +6354,11 @@
       <c r="D136" s="1">
         <v>24</v>
       </c>
-      <c r="E136" s="11">
+      <c r="E136" s="10">
         <v>21413</v>
       </c>
-      <c r="F136" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="8">
         <v>43856</v>
       </c>
@@ -6926,15 +6371,11 @@
       <c r="D137" s="1">
         <v>82</v>
       </c>
-      <c r="E137" s="11">
+      <c r="E137" s="10">
         <v>6505</v>
       </c>
-      <c r="F137" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.54666666666666663</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="8">
         <v>43848</v>
       </c>
@@ -6947,20 +6388,16 @@
       <c r="D138" s="1">
         <v>95</v>
       </c>
-      <c r="E138" s="11">
+      <c r="E138" s="10">
         <v>7983</v>
       </c>
-      <c r="F138" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.68840579710144922</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="8">
         <v>43846</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C139" s="1">
         <v>70</v>
@@ -6968,15 +6405,11 @@
       <c r="D139" s="1">
         <v>48</v>
       </c>
-      <c r="E139" s="11">
+      <c r="E139" s="10">
         <v>9564</v>
       </c>
-      <c r="F139" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.68571428571428572</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="8">
         <v>43845</v>
       </c>
@@ -6989,15 +6422,11 @@
       <c r="D140" s="1">
         <v>84</v>
       </c>
-      <c r="E140" s="11">
+      <c r="E140" s="10">
         <v>7302</v>
       </c>
-      <c r="F140" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.51851851851851849</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="8">
         <v>43842</v>
       </c>
@@ -7010,15 +6439,11 @@
       <c r="D141" s="1">
         <v>54</v>
       </c>
-      <c r="E141" s="11">
+      <c r="E141" s="10">
         <v>9126</v>
       </c>
-      <c r="F141" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.94736842105263153</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="8">
         <v>43836</v>
       </c>
@@ -7031,20 +6456,16 @@
       <c r="D142" s="1">
         <v>60</v>
       </c>
-      <c r="E142" s="11">
+      <c r="E142" s="10">
         <v>5253</v>
       </c>
-      <c r="F142" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.76923076923076927</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="8">
         <v>43834</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C143" s="1">
         <v>81</v>
@@ -7052,15 +6473,11 @@
       <c r="D143" s="1">
         <v>53</v>
       </c>
-      <c r="E143" s="11">
+      <c r="E143" s="10">
         <v>11553</v>
       </c>
-      <c r="F143" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.65432098765432101</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="8">
         <v>43830</v>
       </c>
@@ -7073,15 +6490,11 @@
       <c r="D144" s="1">
         <v>34</v>
       </c>
-      <c r="E144" s="11">
+      <c r="E144" s="10">
         <v>16020</v>
       </c>
-      <c r="F144" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.37777777777777777</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="8">
         <v>43827</v>
       </c>
@@ -7094,15 +6507,11 @@
       <c r="D145" s="1">
         <v>39</v>
       </c>
-      <c r="E145" s="11">
+      <c r="E145" s="10">
         <v>10253</v>
       </c>
-      <c r="F145" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.68421052631578949</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="8">
         <v>43820</v>
       </c>
@@ -7115,20 +6524,16 @@
       <c r="D146" s="1">
         <v>53</v>
       </c>
-      <c r="E146" s="11">
+      <c r="E146" s="10">
         <v>14398</v>
       </c>
-      <c r="F146" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.58888888888888891</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="8">
         <v>43815</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C147" s="1">
         <v>30</v>
@@ -7136,15 +6541,11 @@
       <c r="D147" s="1">
         <v>25</v>
       </c>
-      <c r="E147" s="11">
+      <c r="E147" s="10">
         <v>16429</v>
       </c>
-      <c r="F147" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="8">
         <v>43812</v>
       </c>
@@ -7157,15 +6558,11 @@
       <c r="D148" s="1">
         <v>21</v>
       </c>
-      <c r="E148" s="11">
+      <c r="E148" s="10">
         <v>5368</v>
       </c>
-      <c r="F148" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.36206896551724138</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="8">
         <v>43812</v>
       </c>
@@ -7178,15 +6575,11 @@
       <c r="D149" s="1">
         <v>12</v>
       </c>
-      <c r="E149" s="11">
+      <c r="E149" s="10">
         <v>9928</v>
       </c>
-      <c r="F149" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.15189873417721519</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="8">
         <v>43811</v>
       </c>
@@ -7199,15 +6592,11 @@
       <c r="D150" s="1">
         <v>77</v>
       </c>
-      <c r="E150" s="11">
+      <c r="E150" s="10">
         <v>8860</v>
       </c>
-      <c r="F150" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.7857142857142857</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="8">
         <v>43808</v>
       </c>
@@ -7220,15 +6609,11 @@
       <c r="D151" s="1">
         <v>69</v>
       </c>
-      <c r="E151" s="11">
+      <c r="E151" s="10">
         <v>13335</v>
       </c>
-      <c r="F151" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="8">
         <v>43805</v>
       </c>
@@ -7241,15 +6626,11 @@
       <c r="D152" s="1">
         <v>21</v>
       </c>
-      <c r="E152" s="11">
+      <c r="E152" s="10">
         <v>7009</v>
       </c>
-      <c r="F152" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.51219512195121952</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="8">
         <v>43803</v>
       </c>
@@ -7262,20 +6643,16 @@
       <c r="D153" s="1">
         <v>78</v>
       </c>
-      <c r="E153" s="11">
+      <c r="E153" s="10">
         <v>6100</v>
       </c>
-      <c r="F153" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.55319148936170215</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="8">
         <v>43801</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C154" s="1">
         <v>52</v>
@@ -7283,15 +6660,11 @@
       <c r="D154" s="1">
         <v>36</v>
       </c>
-      <c r="E154" s="11">
+      <c r="E154" s="10">
         <v>7050</v>
       </c>
-      <c r="F154" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.69230769230769229</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="8">
         <v>43800</v>
       </c>
@@ -7304,15 +6677,11 @@
       <c r="D155" s="1">
         <v>51</v>
       </c>
-      <c r="E155" s="11">
+      <c r="E155" s="10">
         <v>21591</v>
       </c>
-      <c r="F155" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.67105263157894735</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="8">
         <v>43798</v>
       </c>
@@ -7325,15 +6694,11 @@
       <c r="D156" s="1">
         <v>35</v>
       </c>
-      <c r="E156" s="11">
+      <c r="E156" s="10">
         <v>19416</v>
       </c>
-      <c r="F156" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.92105263157894735</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="8">
         <v>43795</v>
       </c>
@@ -7346,15 +6711,11 @@
       <c r="D157" s="1">
         <v>12</v>
       </c>
-      <c r="E157" s="11">
+      <c r="E157" s="10">
         <v>9400</v>
       </c>
-      <c r="F157" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.22222222222222221</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="8">
         <v>43792</v>
       </c>
@@ -7367,15 +6728,11 @@
       <c r="D158" s="1">
         <v>25</v>
       </c>
-      <c r="E158" s="11">
+      <c r="E158" s="10">
         <v>4854</v>
       </c>
-      <c r="F158" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.58139534883720934</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="8">
         <v>43790</v>
       </c>
@@ -7388,15 +6745,11 @@
       <c r="D159" s="1">
         <v>51</v>
       </c>
-      <c r="E159" s="11">
+      <c r="E159" s="10">
         <v>10740</v>
       </c>
-      <c r="F159" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.72857142857142854</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="8">
         <v>43786</v>
       </c>
@@ -7409,20 +6762,16 @@
       <c r="D160" s="1">
         <v>78</v>
       </c>
-      <c r="E160" s="11">
+      <c r="E160" s="10">
         <v>6990</v>
       </c>
-      <c r="F160" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.9285714285714286</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="8">
         <v>43786</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C161" s="1">
         <v>126</v>
@@ -7430,20 +6779,16 @@
       <c r="D161" s="1">
         <v>94</v>
       </c>
-      <c r="E161" s="11">
+      <c r="E161" s="10">
         <v>14183</v>
       </c>
-      <c r="F161" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.74603174603174605</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="8">
         <v>43771</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C162" s="1">
         <v>89</v>
@@ -7451,20 +6796,16 @@
       <c r="D162" s="1">
         <v>89</v>
       </c>
-      <c r="E162" s="11">
+      <c r="E162" s="10">
         <v>17044</v>
       </c>
-      <c r="F162" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="8">
         <v>43770</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C163" s="1">
         <v>149</v>
@@ -7472,20 +6813,16 @@
       <c r="D163" s="1">
         <v>83</v>
       </c>
-      <c r="E163" s="11">
+      <c r="E163" s="10">
         <v>20988</v>
       </c>
-      <c r="F163" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.55704697986577179</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="8">
         <v>43769</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C164" s="1">
         <v>139</v>
@@ -7493,15 +6830,11 @@
       <c r="D164" s="1">
         <v>76</v>
       </c>
-      <c r="E164" s="11">
+      <c r="E164" s="10">
         <v>7682</v>
       </c>
-      <c r="F164" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.5467625899280576</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="8">
         <v>43767</v>
       </c>
@@ -7514,15 +6847,11 @@
       <c r="D165" s="1">
         <v>14</v>
       </c>
-      <c r="E165" s="11">
+      <c r="E165" s="10">
         <v>7996</v>
       </c>
-      <c r="F165" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.35897435897435898</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="8">
         <v>43762</v>
       </c>
@@ -7535,20 +6864,16 @@
       <c r="D166" s="1">
         <v>25</v>
       </c>
-      <c r="E166" s="11">
+      <c r="E166" s="10">
         <v>5546</v>
       </c>
-      <c r="F166" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.56818181818181823</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="8">
         <v>43761</v>
       </c>
       <c r="B167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C167" s="1">
         <v>127</v>
@@ -7556,15 +6881,11 @@
       <c r="D167" s="1">
         <v>92</v>
       </c>
-      <c r="E167" s="11">
+      <c r="E167" s="10">
         <v>12347</v>
       </c>
-      <c r="F167" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.72440944881889768</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="8">
         <v>43758</v>
       </c>
@@ -7577,15 +6898,11 @@
       <c r="D168" s="1">
         <v>35</v>
       </c>
-      <c r="E168" s="11">
+      <c r="E168" s="10">
         <v>16423</v>
       </c>
-      <c r="F168" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.660377358490566</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="8">
         <v>43754</v>
       </c>
@@ -7598,15 +6915,11 @@
       <c r="D169" s="1">
         <v>8</v>
       </c>
-      <c r="E169" s="11">
+      <c r="E169" s="10">
         <v>7705</v>
       </c>
-      <c r="F169" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="8">
         <v>43745</v>
       </c>
@@ -7619,15 +6932,11 @@
       <c r="D170" s="1">
         <v>18</v>
       </c>
-      <c r="E170" s="11">
+      <c r="E170" s="10">
         <v>6436</v>
       </c>
-      <c r="F170" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.25352112676056338</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="8">
         <v>43745</v>
       </c>
@@ -7640,12 +6949,8 @@
       <c r="D171" s="1">
         <v>60</v>
       </c>
-      <c r="E171" s="11">
+      <c r="E171" s="10">
         <v>6723</v>
-      </c>
-      <c r="F171" s="9">
-        <f>TBVendas3[[#This Row],[Negócios Fechados]]/TBVendas3[[#This Row],[Clientes visitados]]</f>
-        <v>0.76923076923076927</v>
       </c>
     </row>
   </sheetData>
@@ -7665,29 +6970,29 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7697,11 +7002,11 @@
       <c r="C4" s="7">
         <v>1028</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>0.42904841402337229</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7711,11 +7016,11 @@
       <c r="C5" s="7">
         <v>2164</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>0.63929098966026587</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7725,11 +7030,11 @@
       <c r="C6" s="7">
         <v>1958</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>0.64407894736842108</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -7739,13 +7044,13 @@
       <c r="C7" s="7">
         <v>684</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>0.45752508361204014</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="7">
         <v>3426</v>
@@ -7753,7 +7058,7 @@
       <c r="C8" s="7">
         <v>2369</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>0.69147694103911261</v>
       </c>
     </row>
@@ -7769,14 +7074,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -7784,7 +7089,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -7792,7 +7097,7 @@
         <v>477138</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -7800,7 +7105,7 @@
         <v>499928</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -7808,7 +7113,7 @@
         <v>444867</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -7816,15 +7121,15 @@
         <v>220426</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="7">
         <v>473088</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>

--- a/sds/sds3-dados.xlsx
+++ b/sds/sds3-dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271B25FC-4A19-4291-9F18-16797E21C00A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF45EAFA-975B-4000-B466-CD5E7A879B80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4033,7 +4033,7 @@
   <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
